--- a/USBR 2018 data sample.xlsx
+++ b/USBR 2018 data sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Mussels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwind\OneDrive\Writing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6CB9FF22-0532-4CD3-97CF-680AB9D9FCDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8DAD8692-2068-4405-A426-715D7E13AF6B}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="750" windowWidth="23280" windowHeight="15270" activeTab="1" xr2:uid="{F935EE21-EB37-4481-BFAD-EBD97B880C2B}"/>
+    <workbookView minimized="1" xWindow="-22995" yWindow="8115" windowWidth="15390" windowHeight="9540" activeTab="2" xr2:uid="{F935EE21-EB37-4481-BFAD-EBD97B880C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>I180001</v>
@@ -20244,7 +20244,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>I180005</v>
@@ -43834,22 +43834,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18476D05-F156-402B-AE55-99FE115A834E}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" workbookViewId="0">
-      <selection sqref="A1:AE51"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.73046875" customWidth="1"/>
+    <col min="9" max="9" width="25.1328125" customWidth="1"/>
+    <col min="17" max="17" width="17.86328125" customWidth="1"/>
+    <col min="18" max="18" width="18.59765625" customWidth="1"/>
+    <col min="19" max="19" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43944,7 +43944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
@@ -44005,7 +44005,7 @@
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -44066,7 +44066,7 @@
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
@@ -44127,7 +44127,7 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -44188,7 +44188,7 @@
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -44256,7 +44256,7 @@
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
@@ -44324,7 +44324,7 @@
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>60</v>
       </c>
@@ -44387,7 +44387,7 @@
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
@@ -44450,7 +44450,7 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -44513,7 +44513,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>66</v>
       </c>
@@ -44576,7 +44576,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>67</v>
       </c>
@@ -44639,7 +44639,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>70</v>
       </c>
@@ -44702,7 +44702,7 @@
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>72</v>
       </c>
@@ -44765,7 +44765,7 @@
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>73</v>
       </c>
@@ -44828,7 +44828,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>74</v>
       </c>
@@ -44891,7 +44891,7 @@
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>76</v>
       </c>
@@ -44954,7 +44954,7 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>77</v>
       </c>
@@ -45017,7 +45017,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>78</v>
       </c>
@@ -45087,7 +45087,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>85</v>
       </c>
@@ -45157,7 +45157,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>87</v>
       </c>
@@ -45227,7 +45227,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>89</v>
       </c>
@@ -45297,7 +45297,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>91</v>
       </c>
@@ -45367,7 +45367,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -45437,7 +45437,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>96</v>
       </c>
@@ -45507,7 +45507,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
@@ -45577,7 +45577,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
@@ -45647,7 +45647,7 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>101</v>
       </c>
@@ -45717,7 +45717,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>104</v>
       </c>
@@ -45787,7 +45787,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
         <v>106</v>
       </c>
@@ -45857,7 +45857,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>108</v>
       </c>
@@ -45927,7 +45927,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>110</v>
       </c>
@@ -45997,7 +45997,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>112</v>
       </c>
@@ -46067,7 +46067,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>115</v>
       </c>
@@ -46137,7 +46137,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>117</v>
       </c>
@@ -46207,7 +46207,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>119</v>
       </c>
@@ -46277,7 +46277,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>121</v>
       </c>
@@ -46347,7 +46347,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>124</v>
       </c>
@@ -46417,7 +46417,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>126</v>
       </c>
@@ -46487,7 +46487,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
         <v>128</v>
       </c>
@@ -46557,7 +46557,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>131</v>
       </c>
@@ -46618,7 +46618,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -46679,7 +46679,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>133</v>
       </c>
@@ -46740,7 +46740,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>134</v>
       </c>
@@ -46801,7 +46801,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>135</v>
       </c>
@@ -46871,7 +46871,7 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>136</v>
       </c>
@@ -46941,7 +46941,7 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>137</v>
       </c>
@@ -47011,7 +47011,7 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>138</v>
       </c>
@@ -47081,7 +47081,7 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>139</v>
       </c>
@@ -47151,7 +47151,7 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>140</v>
       </c>
@@ -47221,7 +47221,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>141</v>
       </c>
@@ -47300,13 +47300,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACF2BAA-9549-4BC3-83C8-33AFC91F1EED}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -47335,7 +47335,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -47364,7 +47364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -47393,7 +47393,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -47422,7 +47422,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -47451,7 +47451,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -47480,7 +47480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -47509,7 +47509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -47567,7 +47567,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -47596,7 +47596,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -47625,7 +47625,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -47654,7 +47654,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -47712,7 +47712,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -47741,7 +47741,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -47799,7 +47799,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -47828,7 +47828,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -47857,7 +47857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -47886,7 +47886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -47915,7 +47915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -47944,7 +47944,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -47973,7 +47973,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -48002,7 +48002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -48031,7 +48031,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -48060,7 +48060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -48089,7 +48089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -48118,7 +48118,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -48147,7 +48147,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -48205,7 +48205,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -48234,7 +48234,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -48263,7 +48263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -48292,7 +48292,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -48321,7 +48321,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -48350,7 +48350,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -48379,7 +48379,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -48437,7 +48437,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -48466,7 +48466,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -48495,7 +48495,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -48524,7 +48524,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -48553,7 +48553,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -48611,7 +48611,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -48640,7 +48640,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -48669,7 +48669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -48698,7 +48698,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -48727,7 +48727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -48794,21 +48794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617E87D1-020C-4BE9-B82A-4B869182388D}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="29.265625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -48867,7 +48867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
@@ -48926,7 +48926,7 @@
       </c>
       <c r="S2" s="42"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>42</v>
       </c>
@@ -48985,7 +48985,7 @@
       </c>
       <c r="S3" s="42"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
@@ -49044,7 +49044,7 @@
       </c>
       <c r="S4" s="42"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
         <v>49</v>
       </c>
@@ -49103,7 +49103,7 @@
       </c>
       <c r="S5" s="42"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
         <v>51</v>
       </c>
@@ -49158,7 +49158,7 @@
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
         <v>58</v>
       </c>
@@ -49221,7 +49221,7 @@
       </c>
       <c r="S7" s="42"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
         <v>60</v>
       </c>
@@ -49276,7 +49276,7 @@
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
         <v>64</v>
       </c>
@@ -49331,7 +49331,7 @@
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
         <v>65</v>
       </c>
@@ -49386,7 +49386,7 @@
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
         <v>66</v>
       </c>
@@ -49441,7 +49441,7 @@
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
         <v>67</v>
       </c>
@@ -49496,7 +49496,7 @@
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
         <v>70</v>
       </c>
@@ -49551,7 +49551,7 @@
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="40" t="s">
         <v>72</v>
       </c>
@@ -49606,7 +49606,7 @@
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="40" t="s">
         <v>73</v>
       </c>
@@ -49661,7 +49661,7 @@
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="40" t="s">
         <v>74</v>
       </c>
@@ -49716,7 +49716,7 @@
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="40" t="s">
         <v>76</v>
       </c>
@@ -49771,7 +49771,7 @@
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="40" t="s">
         <v>77</v>
       </c>
@@ -49826,7 +49826,7 @@
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>78</v>
       </c>
@@ -49889,7 +49889,7 @@
       </c>
       <c r="S19" s="54"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="48" t="s">
         <v>85</v>
       </c>
@@ -49952,7 +49952,7 @@
       </c>
       <c r="S20" s="54"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="48" t="s">
         <v>87</v>
       </c>
@@ -50015,7 +50015,7 @@
       </c>
       <c r="S21" s="54"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>89</v>
       </c>
@@ -50078,7 +50078,7 @@
       </c>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="48" t="s">
         <v>91</v>
       </c>
@@ -50141,7 +50141,7 @@
       </c>
       <c r="S23" s="54"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="48" t="s">
         <v>93</v>
       </c>
@@ -50204,7 +50204,7 @@
       </c>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="48" t="s">
         <v>96</v>
       </c>
@@ -50267,7 +50267,7 @@
       </c>
       <c r="S25" s="54"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="48" t="s">
         <v>97</v>
       </c>
@@ -50330,7 +50330,7 @@
       </c>
       <c r="S26" s="54"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="48" t="s">
         <v>99</v>
       </c>
@@ -50393,7 +50393,7 @@
       </c>
       <c r="S27" s="54"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="48" t="s">
         <v>101</v>
       </c>
@@ -50456,7 +50456,7 @@
       </c>
       <c r="S28" s="54"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="48" t="s">
         <v>104</v>
       </c>
@@ -50519,7 +50519,7 @@
       </c>
       <c r="S29" s="54"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="40" t="s">
         <v>106</v>
       </c>
@@ -50582,7 +50582,7 @@
       </c>
       <c r="S30" s="62"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="48" t="s">
         <v>108</v>
       </c>
@@ -50645,7 +50645,7 @@
       </c>
       <c r="S31" s="54"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="48" t="s">
         <v>110</v>
       </c>
@@ -50708,7 +50708,7 @@
       </c>
       <c r="S32" s="54"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="48" t="s">
         <v>112</v>
       </c>
@@ -50771,7 +50771,7 @@
       </c>
       <c r="S33" s="54"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="48" t="s">
         <v>115</v>
       </c>
@@ -50834,7 +50834,7 @@
       </c>
       <c r="S34" s="54"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="48" t="s">
         <v>117</v>
       </c>
@@ -50897,7 +50897,7 @@
       </c>
       <c r="S35" s="54"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="48" t="s">
         <v>119</v>
       </c>
@@ -50960,7 +50960,7 @@
       </c>
       <c r="S36" s="54"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="48" t="s">
         <v>121</v>
       </c>
@@ -51023,7 +51023,7 @@
       </c>
       <c r="S37" s="54"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="48" t="s">
         <v>124</v>
       </c>
@@ -51069,7 +51069,7 @@
         <v>697</v>
       </c>
       <c r="N38" s="54" t="str">
-        <f t="array" ref="N38">IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A38,'[1]2018Results'!A$2:H$1859,8,FALSE),"")</f>
         <v>l ost</v>
       </c>
       <c r="O38" s="54" t="s">
@@ -51086,7 +51086,7 @@
       </c>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="48" t="s">
         <v>126</v>
       </c>
@@ -51149,7 +51149,7 @@
       </c>
       <c r="S39" s="54"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="48" t="s">
         <v>128</v>
       </c>
@@ -51212,7 +51212,7 @@
       </c>
       <c r="S40" s="54"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="40" t="s">
         <v>131</v>
       </c>
@@ -51271,7 +51271,7 @@
       </c>
       <c r="S41" s="42"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="40" t="s">
         <v>132</v>
       </c>
@@ -51330,7 +51330,7 @@
       </c>
       <c r="S42" s="42"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="40" t="s">
         <v>133</v>
       </c>
@@ -51389,7 +51389,7 @@
       </c>
       <c r="S43" s="42"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="40" t="s">
         <v>134</v>
       </c>
@@ -51448,7 +51448,7 @@
       </c>
       <c r="S44" s="42"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="48" t="s">
         <v>135</v>
       </c>
@@ -51511,7 +51511,7 @@
       </c>
       <c r="S45" s="54"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="48" t="s">
         <v>136</v>
       </c>
@@ -51574,7 +51574,7 @@
       </c>
       <c r="S46" s="54"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
         <v>137</v>
       </c>
@@ -51637,7 +51637,7 @@
       </c>
       <c r="S47" s="54"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
         <v>138</v>
       </c>
@@ -51700,7 +51700,7 @@
       </c>
       <c r="S48" s="54"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
         <v>139</v>
       </c>
@@ -51763,7 +51763,7 @@
       </c>
       <c r="S49" s="54"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="48" t="s">
         <v>140</v>
       </c>
@@ -51826,7 +51826,7 @@
       </c>
       <c r="S50" s="54"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="48" t="s">
         <v>141</v>
       </c>
@@ -51899,17 +51899,17 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.265625" customWidth="1"/>
+    <col min="11" max="11" width="14.265625" customWidth="1"/>
+    <col min="12" max="12" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="64" t="s">
         <v>157</v>
       </c>
@@ -52014,7 +52014,7 @@
       </c>
       <c r="AI1" s="75"/>
     </row>
-    <row r="2" spans="1:35" s="80" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="80" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="76" t="s">
         <v>93</v>
       </c>
@@ -52082,7 +52082,7 @@
       <c r="AG2" s="79"/>
       <c r="AH2" s="79"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>96</v>
       </c>
@@ -52150,7 +52150,7 @@
       <c r="AG3" s="42"/>
       <c r="AH3" s="42"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>97</v>
       </c>
@@ -52218,7 +52218,7 @@
       <c r="AG4" s="42"/>
       <c r="AH4" s="42"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>99</v>
       </c>
@@ -52286,7 +52286,7 @@
       <c r="AG5" s="42"/>
       <c r="AH5" s="42"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>112</v>
       </c>
@@ -52354,7 +52354,7 @@
       <c r="AG6" s="42"/>
       <c r="AH6" s="42"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>115</v>
       </c>
@@ -52422,7 +52422,7 @@
       <c r="AG7" s="42"/>
       <c r="AH7" s="42"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>117</v>
       </c>
@@ -52490,7 +52490,7 @@
       <c r="AG8" s="42"/>
       <c r="AH8" s="42"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>119</v>
       </c>
@@ -52558,7 +52558,7 @@
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
@@ -52630,7 +52630,7 @@
       <c r="AG10" s="42"/>
       <c r="AH10" s="42"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
         <v>138</v>
       </c>
@@ -52698,7 +52698,7 @@
       <c r="AG11" s="42"/>
       <c r="AH11" s="42"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
         <v>139</v>
       </c>
@@ -52766,7 +52766,7 @@
       <c r="AG12" s="42"/>
       <c r="AH12" s="42"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
         <v>141</v>
       </c>
@@ -52834,7 +52834,7 @@
       <c r="AG13" s="42"/>
       <c r="AH13" s="42"/>
     </row>
-    <row r="14" spans="1:35" s="80" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="80" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="76" t="s">
         <v>140</v>
       </c>
